--- a/south-korea-usa-trade-20170905/south-korea-usa-trade-20170905.xlsx
+++ b/south-korea-usa-trade-20170905/south-korea-usa-trade-20170905.xlsx
@@ -53,13 +53,13 @@
     <t>1992</t>
   </si>
   <si>
-    <t>1993</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
     <t>NPR</t>
+  </si>
+  <si>
+    <t>1993</t>
   </si>
   <si>
     <t>1994</t>
@@ -173,21 +173,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -195,51 +188,51 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -249,15 +242,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,10 +421,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -742,6 +738,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -813,7 +812,7 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="11">
         <v>1.8157983E7</v>
@@ -7935,6 +7934,34 @@
       <c r="E1000" s="17"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink r:id="rId6" ref="A7"/>
+    <hyperlink r:id="rId7" ref="A8"/>
+    <hyperlink r:id="rId8" ref="A9"/>
+    <hyperlink r:id="rId9" ref="A10"/>
+    <hyperlink r:id="rId10" ref="A11"/>
+    <hyperlink r:id="rId11" ref="A12"/>
+    <hyperlink r:id="rId12" ref="A13"/>
+    <hyperlink r:id="rId13" ref="A14"/>
+    <hyperlink r:id="rId14" ref="A15"/>
+    <hyperlink r:id="rId15" ref="A16"/>
+    <hyperlink r:id="rId16" ref="A17"/>
+    <hyperlink r:id="rId17" ref="A18"/>
+    <hyperlink r:id="rId18" ref="A19"/>
+    <hyperlink r:id="rId19" ref="A20"/>
+    <hyperlink r:id="rId20" ref="A21"/>
+    <hyperlink r:id="rId21" ref="A22"/>
+    <hyperlink r:id="rId22" ref="A23"/>
+    <hyperlink r:id="rId23" ref="A24"/>
+    <hyperlink r:id="rId24" ref="A25"/>
+    <hyperlink r:id="rId25" ref="A26"/>
+    <hyperlink r:id="rId26" ref="A27"/>
+  </hyperlinks>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>